--- a/巴奏太/履歴書/09_巴奏太_履歴書.xlsx
+++ b/巴奏太/履歴書/09_巴奏太_履歴書.xlsx
@@ -291,14 +291,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>私はオンラインで他人とプレイするゲームに興味があるので、そのシステムにはとても興味を惹かれました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>なので私は貴社でオンラインに関わる部分でゲームプログラマーとして活躍したいです。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>最初の作品では攻撃種類の多彩さ、次の作品ではプレイヤーの動き、挙動に関する部分に力を入れて</t>
     <rPh sb="31" eb="33">
       <t>キョドウ</t>
@@ -318,38 +310,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>取り組みました。今後の作品では、学校のゲームイベントなどに参加してみんなでゲームを遊ぶ楽しさを</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクヒン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>アソ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>タノ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>その部分とは、自分がプレイしているゲームの世界にオンラインで他のプレイヤーが介入してくる部分です。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>貴社に入社したあかつきには、学校で学んだ事を活かしつつ、貴社の技術を学ばせて頂きたいです。</t>
     <rPh sb="0" eb="2">
       <t>キシャ</t>
@@ -384,26 +344,75 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>そしていずれはメインプログラマーを担当し、貴社のトッププログラマーになりたいです。</t>
+    <t>取り組みました。学校の様々なイベントに参加してみんなでゲームを作り、そして遊ぶ楽しさを知ったので</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>今後の作品ではそれをオンラインでも体感できるようなマルチプレイゲームを作ってみたいです。</t>
+    <rPh sb="0" eb="2">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクヒン</t>
+    </rPh>
     <rPh sb="17" eb="19">
+      <t>タイカン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>そしていずれはゲームの中核を担当して、貴社のトッププログラマーになりたいです。</t>
+    <rPh sb="11" eb="13">
+      <t>チュウカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>タントウ</t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="19" eb="21">
       <t>キシャ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>知ったので、それをオンラインでも体感できるようなマルチプレイゲームを作ってみたいです。</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>タイカン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ツク</t>
-    </rPh>
+    <t>なので私は貴社でオンラインに関わる部分でゲームプログラマーとして活躍したいです。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私はオンラインで他人とプレイするゲームに興味があるので、そのシステムにはとても興味を惹かれました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>その部分とは、自分がプレイしているゲームの世界にオンラインで他のプレイヤーが介入してくる部分です。</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2837,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3181,7 +3190,7 @@
     </row>
     <row r="24" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B24" s="105" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="106"/>
@@ -3196,7 +3205,7 @@
     </row>
     <row r="25" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B25" s="105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C25" s="106"/>
       <c r="D25" s="106"/>
@@ -3211,7 +3220,7 @@
     </row>
     <row r="26" spans="2:12" ht="26.1" customHeight="1">
       <c r="B26" s="105" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C26" s="106"/>
       <c r="D26" s="106"/>
@@ -3226,7 +3235,7 @@
     </row>
     <row r="27" spans="2:12" ht="26.1" customHeight="1">
       <c r="B27" s="105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="106"/>
       <c r="D27" s="106"/>
@@ -3241,7 +3250,7 @@
     </row>
     <row r="28" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B28" s="105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="106"/>
       <c r="D28" s="106"/>
@@ -3256,7 +3265,7 @@
     </row>
     <row r="29" spans="2:12" ht="26.1" customHeight="1">
       <c r="B29" s="105" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C29" s="106"/>
       <c r="D29" s="106"/>
@@ -3271,7 +3280,7 @@
     </row>
     <row r="30" spans="2:12" ht="26.1" customHeight="1">
       <c r="B30" s="105" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C30" s="106"/>
       <c r="D30" s="106"/>
@@ -3286,7 +3295,7 @@
     </row>
     <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B31" s="108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="109"/>
       <c r="D31" s="109"/>

--- a/巴奏太/履歴書/09_巴奏太_履歴書.xlsx
+++ b/巴奏太/履歴書/09_巴奏太_履歴書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\3DtameB\巴奏太\履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21108" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21108" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="履歴書(表)" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>年</t>
   </si>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>年</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>月</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -413,6 +409,154 @@
   </si>
   <si>
     <t>その部分とは、自分がプレイしているゲームの世界にオンラインで他のプレイヤーが介入してくる部分です。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>巴 奏太</t>
+    <rPh sb="0" eb="1">
+      <t>トモエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウタ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ともえ そうた</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2000 年</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>065-0012</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>giru559@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>080-4042-2537</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ほっかいどうさっぽろしひがしくきた12じょうひがし9ちょうめ3-1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>学校法人池上学園池上学園高等学校北見キャンパス 卒業</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>令和2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>平成28</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>学校法人池上学園池上学園高等学校北見キャンパス 編入</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>北海道津別高等学校 入学</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>平成28</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>学歴</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>令和2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>吉田学園情報ビジネス専門学校 ゲーム学科 入学</t>
+    <rPh sb="0" eb="6">
+      <t>ヨシダガクエンジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>センモンガッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウガク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>令和4</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>吉田学園情報ビジネス専門学校 ゲーム学科 卒業見込み</t>
+    <rPh sb="0" eb="6">
+      <t>ヨシダガクエンジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>センモンガッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ソツギョウミコ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>職歴</t>
+    <rPh sb="0" eb="2">
+      <t>ショクレキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>北海道札幌市東区北12条東9丁目3-1 エムズアパートメント203号室</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サッポロシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒガシク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウメ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゴウシツ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -420,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -510,6 +654,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1318,10 +1469,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1426,6 +1578,249 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1472,247 +1867,26 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1727,6 +1901,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1787,55 +1986,36 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1849,6 +2029,82 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ドーナツ 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4411980" y="1546860"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5559"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2140,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2157,22 +2413,22 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="P3" s="75"/>
+      <c r="C3" s="30"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="16"/>
       <c r="J4" s="14" t="s">
         <v>13</v>
@@ -2185,124 +2441,136 @@
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="75"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="83"/>
-      <c r="P5" s="75"/>
+      <c r="C5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
-      <c r="P6" s="75"/>
+      <c r="C6" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="39"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:17" ht="23.4" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="88"/>
-      <c r="P7" s="75"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="48">
+        <v>4</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="97" t="s">
+      <c r="G8" s="48">
+        <v>27</v>
+      </c>
+      <c r="H8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="99" t="s">
+      <c r="I8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="95" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="55">
+        <v>20</v>
+      </c>
+      <c r="M8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="103" t="s">
+      <c r="N8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="75"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="91"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="104"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="70" t="s">
+      <c r="C10" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="72"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="63"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="3" t="s">
@@ -2311,82 +2579,90 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="65"/>
+      <c r="D11" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="70"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60" t="s">
+      <c r="B12" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="56"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="75"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="65"/>
+      <c r="C13" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="60" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="56"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="75"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" customHeight="1">
       <c r="B15" s="12" t="s">
@@ -2395,58 +2671,58 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="82"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="54"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="56"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="75"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="43"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="89"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.9" customHeight="1">
@@ -2456,238 +2732,276 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="92"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
+      <c r="D20" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="139"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
+      <c r="B21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10">
+        <v>4</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="95"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29"/>
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="10">
+        <v>8</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="95"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="29"/>
+      <c r="B23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="95"/>
     </row>
     <row r="24" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="29"/>
+      <c r="B24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
+      <c r="B25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="95"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="29"/>
+      <c r="D27" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="139"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
+      <c r="D28" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="95"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="29"/>
+      <c r="D29" s="140" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="142"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="95"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
       <c r="B32" s="9" t="s">
@@ -2696,42 +3010,42 @@
       <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="38"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="104"/>
     </row>
     <row r="33" spans="2:17" ht="26.1" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="29"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="95"/>
     </row>
     <row r="34" spans="2:17" ht="26.1" customHeight="1">
       <c r="B34" s="9" t="s">
@@ -2740,22 +3054,22 @@
       <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="95"/>
     </row>
     <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
       <c r="B35" s="25" t="s">
@@ -2764,25 +3078,60 @@
       <c r="C35" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="32"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D33:Q33"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="P2:P8"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G4:H4"/>
@@ -2798,47 +3147,16 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="D33:Q33"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="D32:Q32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="110" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="110" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2846,7 +3164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
@@ -2871,122 +3189,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="118"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="127"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
     </row>
     <row r="4" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="128"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="110"/>
     </row>
     <row r="5" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="128"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="110"/>
     </row>
     <row r="6" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="128"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="110"/>
     </row>
     <row r="7" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="128"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="110"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="128"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="110"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="128"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="110"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="22"/>
@@ -3002,131 +3320,131 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="130"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="115"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="133"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="134"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="128"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="133"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="134"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="128"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="133"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
     </row>
     <row r="17" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="128"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="133"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="107"/>
     </row>
     <row r="19" spans="2:12" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="113"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="126"/>
     </row>
     <row r="20" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="22"/>
@@ -3142,192 +3460,174 @@
       <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="120"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
       <c r="F21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="122"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="135"/>
     </row>
     <row r="22" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="129"/>
+    </row>
+    <row r="23" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B23" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="116"/>
-    </row>
-    <row r="23" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B23" s="105" t="s">
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="113"/>
+    </row>
+    <row r="24" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B24" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="113"/>
+    </row>
+    <row r="25" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="113"/>
+    </row>
+    <row r="26" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B26" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="113"/>
+    </row>
+    <row r="27" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B27" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="107"/>
-    </row>
-    <row r="24" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
-    </row>
-    <row r="25" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="107"/>
-    </row>
-    <row r="26" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B26" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="107"/>
-    </row>
-    <row r="27" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B27" s="105" t="s">
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="113"/>
+    </row>
+    <row r="28" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="113"/>
+    </row>
+    <row r="29" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B29" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="113"/>
+    </row>
+    <row r="30" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B30" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="107"/>
-    </row>
-    <row r="28" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
-    </row>
-    <row r="29" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B29" s="105" t="s">
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="113"/>
+    </row>
+    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B31" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
-    </row>
-    <row r="30" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B30" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="107"/>
-    </row>
-    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="110"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D6:L6"/>
     <mergeCell ref="B29:L29"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B31:L31"/>
@@ -3340,6 +3640,24 @@
     <mergeCell ref="B24:L24"/>
     <mergeCell ref="B25:L25"/>
     <mergeCell ref="B28:L28"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
